--- a/data_year/zb/科技/规模以上工业企业新产品开发及生产情况/按行业分规模以上工业企业开发新产品经费.xlsx
+++ b/data_year/zb/科技/规模以上工业企业新产品开发及生产情况/按行业分规模以上工业企业开发新产品经费.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM14"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,1190 +628,1152 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4580085.7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9734549.9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1483066.3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1197057.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4460791.2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>847647.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2330717.9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>219486.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>919429.9</v>
+      </c>
+      <c r="K2" t="n">
+        <v>129601.7</v>
+      </c>
       <c r="L2" t="n">
-        <v>9657000</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
+        <v>68459429.8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>268384</v>
+      </c>
+      <c r="N2" t="n">
+        <v>172333.9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1784679.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>37522.4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>160893</v>
+      </c>
+      <c r="R2" t="n">
+        <v>810419.1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>11578</v>
+      </c>
+      <c r="T2" t="n">
+        <v>164400.8</v>
+      </c>
+      <c r="U2" t="n">
+        <v>503870.7</v>
+      </c>
+      <c r="V2" t="n">
+        <v>10886.7</v>
+      </c>
+      <c r="W2" t="n">
+        <v>265257.2</v>
+      </c>
+      <c r="X2" t="n">
+        <v>7683598.7</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>209395</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>607878.7</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>304433.3</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1652356.9</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>401891.6</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>12357995.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5003972.1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>635175.1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1275446.9</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1375154.6</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>38939.8</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>682740.7</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>716557</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>5368655.4</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>30761.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5139262.5</v>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>1611686.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5432972.8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>885544.9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3082346.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>287795.3</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>208509.5</v>
+      </c>
       <c r="L3" t="n">
-        <v>36760615.3</v>
+        <v>79985405.09999999</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>2128459.2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>74987</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>240672.2</v>
+      </c>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>23068.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>152353.6</v>
+      </c>
+      <c r="U3" t="n">
+        <v>638024.9</v>
+      </c>
+      <c r="V3" t="n">
+        <v>29390.6</v>
+      </c>
+      <c r="W3" t="n">
+        <v>277267.4</v>
+      </c>
+      <c r="X3" t="n">
+        <v>8630769</v>
+      </c>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="Z3" t="n">
+        <v>797241.4</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>266716.8</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1761983.5</v>
+      </c>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>13639751.7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5719081</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>742744.8</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2126664.3</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1660509.9</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>57087.7</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>897427.5</v>
+      </c>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>6071824</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>16521.6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5887266.5</v>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>2140687</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6292465.9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>939357.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3645005.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>328121.1</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>283317.7</v>
+      </c>
       <c r="L4" t="n">
-        <v>44820000</v>
+        <v>92467435.90000001</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>2629011.7</v>
+      </c>
+      <c r="P4" t="n">
+        <v>65144.4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>300401.4</v>
+      </c>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>32114.6</v>
+      </c>
+      <c r="T4" t="n">
+        <v>195983.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>807902.7</v>
+      </c>
+      <c r="V4" t="n">
+        <v>24203.5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>397664.6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>10453248.9</v>
+      </c>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="Z4" t="n">
+        <v>1131378.8</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>243636.5</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1905565.5</v>
+      </c>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>15558038.6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>6555971.4</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>795367.6</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2473428.7</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2193521.2</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>51074.4</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1049121.5</v>
+      </c>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>6060242.4</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>49431.6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4580085.7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9734549.9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1483066.3</v>
-      </c>
+        <v>6370376.7</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>1197057.1</v>
+        <v>2250686.5</v>
       </c>
       <c r="F5" t="n">
-        <v>4460791.2</v>
+        <v>6934590.4</v>
       </c>
       <c r="G5" t="n">
-        <v>847647.3</v>
+        <v>1002438.8</v>
       </c>
       <c r="H5" t="n">
-        <v>2330717.9</v>
+        <v>4079308.4</v>
       </c>
       <c r="I5" t="n">
-        <v>219486.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>919429.9</v>
-      </c>
+        <v>341469.4</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>129601.7</v>
+        <v>343029.4</v>
       </c>
       <c r="L5" t="n">
-        <v>68459429.8</v>
-      </c>
-      <c r="M5" t="n">
-        <v>268384</v>
-      </c>
-      <c r="N5" t="n">
-        <v>172333.9</v>
-      </c>
+        <v>101231582</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1784679.5</v>
+        <v>2721549.1</v>
       </c>
       <c r="P5" t="n">
-        <v>37522.4</v>
+        <v>147445.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>160893</v>
-      </c>
-      <c r="R5" t="n">
-        <v>810419.1</v>
-      </c>
+        <v>370635.1</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>11578</v>
+        <v>37557.2</v>
       </c>
       <c r="T5" t="n">
-        <v>164400.8</v>
+        <v>201412.6</v>
       </c>
       <c r="U5" t="n">
-        <v>503870.7</v>
+        <v>711094.6</v>
       </c>
       <c r="V5" t="n">
-        <v>10886.7</v>
+        <v>29711.6</v>
       </c>
       <c r="W5" t="n">
-        <v>265257.2</v>
+        <v>353030</v>
       </c>
       <c r="X5" t="n">
-        <v>7683598.7</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>209395</v>
-      </c>
+        <v>11286991.7</v>
+      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>607878.7</v>
+        <v>1037901.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>304433.3</v>
+        <v>204528</v>
       </c>
       <c r="AB5" t="n">
-        <v>1652356.9</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>401891.6</v>
-      </c>
+        <v>2046845.9</v>
+      </c>
+      <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="n">
-        <v>12357995.5</v>
+        <v>17822715.2</v>
       </c>
       <c r="AE5" t="n">
-        <v>5003972.1</v>
+        <v>7015415.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>635175.1</v>
+        <v>828185.6</v>
       </c>
       <c r="AG5" t="n">
-        <v>1275446.9</v>
+        <v>2701305.2</v>
       </c>
       <c r="AH5" t="n">
-        <v>1375154.6</v>
+        <v>2506637.8</v>
       </c>
       <c r="AI5" t="n">
-        <v>38939.8</v>
+        <v>69157.89999999999</v>
       </c>
       <c r="AJ5" t="n">
-        <v>682740.7</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>716557</v>
-      </c>
+        <v>1315863.5</v>
+      </c>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
-        <v>5368655.4</v>
+        <v>6155502.3</v>
       </c>
       <c r="AM5" t="n">
-        <v>30761.1</v>
+        <v>50805.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5139262.5</v>
+        <v>6108741.8</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>1611686.1</v>
+        <v>2261973.3</v>
       </c>
       <c r="F6" t="n">
-        <v>5432972.8</v>
+        <v>6873045.3</v>
       </c>
       <c r="G6" t="n">
-        <v>885544.9</v>
+        <v>942638.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3082346.6</v>
+        <v>4279485.1</v>
       </c>
       <c r="I6" t="n">
-        <v>287795.3</v>
+        <v>372602.1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>208509.5</v>
+        <v>412753.2</v>
       </c>
       <c r="L6" t="n">
-        <v>79985405.09999999</v>
+        <v>102708341.9</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>2128459.2</v>
+        <v>2732463.1</v>
       </c>
       <c r="P6" t="n">
-        <v>74987</v>
+        <v>108468</v>
       </c>
       <c r="Q6" t="n">
-        <v>240672.2</v>
+        <v>428827.1</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>23068.4</v>
+        <v>44651.7</v>
       </c>
       <c r="T6" t="n">
-        <v>152353.6</v>
+        <v>150135.4</v>
       </c>
       <c r="U6" t="n">
-        <v>638024.9</v>
+        <v>611804</v>
       </c>
       <c r="V6" t="n">
-        <v>29390.6</v>
+        <v>35806.4</v>
       </c>
       <c r="W6" t="n">
-        <v>277267.4</v>
+        <v>434522.1</v>
       </c>
       <c r="X6" t="n">
-        <v>8630769</v>
+        <v>11290147.1</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>797241.4</v>
+        <v>838718.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>266716.8</v>
+        <v>142489.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>1761983.5</v>
+        <v>2081405.5</v>
       </c>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
-        <v>13639751.7</v>
+        <v>19822682.9</v>
       </c>
       <c r="AE6" t="n">
-        <v>5719081</v>
+        <v>6690067.2</v>
       </c>
       <c r="AF6" t="n">
-        <v>742744.8</v>
+        <v>870417.9</v>
       </c>
       <c r="AG6" t="n">
-        <v>2126664.3</v>
+        <v>2808475.6</v>
       </c>
       <c r="AH6" t="n">
-        <v>1660509.9</v>
+        <v>2487517.1</v>
       </c>
       <c r="AI6" t="n">
-        <v>57087.7</v>
+        <v>74207.10000000001</v>
       </c>
       <c r="AJ6" t="n">
-        <v>897427.5</v>
+        <v>1382301.6</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>6071824</v>
+        <v>4838219.4</v>
       </c>
       <c r="AM6" t="n">
-        <v>16521.6</v>
+        <v>52606.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5887266.5</v>
+        <v>6262610</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>2140687</v>
+        <v>2743868.1</v>
       </c>
       <c r="F7" t="n">
-        <v>6292465.9</v>
+        <v>7453922.4</v>
       </c>
       <c r="G7" t="n">
-        <v>939357.9</v>
+        <v>982567.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3645005.6</v>
+        <v>4978805.7</v>
       </c>
       <c r="I7" t="n">
-        <v>328121.1</v>
+        <v>472019.6</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>283317.7</v>
+        <v>563542.5</v>
       </c>
       <c r="L7" t="n">
-        <v>92467435.90000001</v>
+        <v>117662657.9</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>2629011.7</v>
+        <v>3296787.4</v>
       </c>
       <c r="P7" t="n">
-        <v>65144.4</v>
+        <v>126466.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>300401.4</v>
+        <v>511598.4</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>32114.6</v>
+        <v>39789</v>
       </c>
       <c r="T7" t="n">
-        <v>195983.5</v>
+        <v>233524.2</v>
       </c>
       <c r="U7" t="n">
-        <v>807902.7</v>
+        <v>661930.4</v>
       </c>
       <c r="V7" t="n">
-        <v>24203.5</v>
+        <v>43180.9</v>
       </c>
       <c r="W7" t="n">
-        <v>397664.6</v>
+        <v>482680.4</v>
       </c>
       <c r="X7" t="n">
-        <v>10453248.9</v>
+        <v>13000483.4</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>1131378.8</v>
+        <v>782452.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>243636.5</v>
+        <v>180382.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>1905565.5</v>
+        <v>2229996.9</v>
       </c>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="n">
-        <v>15558038.6</v>
+        <v>23494423</v>
       </c>
       <c r="AE7" t="n">
-        <v>6555971.4</v>
+        <v>7287116.3</v>
       </c>
       <c r="AF7" t="n">
-        <v>795367.6</v>
+        <v>1171996.8</v>
       </c>
       <c r="AG7" t="n">
-        <v>2473428.7</v>
+        <v>3376747.9</v>
       </c>
       <c r="AH7" t="n">
-        <v>2193521.2</v>
+        <v>3035081.6</v>
       </c>
       <c r="AI7" t="n">
-        <v>51074.4</v>
+        <v>76911.89999999999</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1049121.5</v>
+        <v>1586257.5</v>
       </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>6060242.4</v>
+        <v>5073974.1</v>
       </c>
       <c r="AM7" t="n">
-        <v>49431.6</v>
+        <v>58039</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6370376.7</v>
+        <v>7599517.4</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>2250686.5</v>
+        <v>3014682.3</v>
       </c>
       <c r="F8" t="n">
-        <v>6934590.4</v>
+        <v>8142838</v>
       </c>
       <c r="G8" t="n">
-        <v>1002438.8</v>
+        <v>1229238.1</v>
       </c>
       <c r="H8" t="n">
-        <v>4079308.4</v>
+        <v>5886028</v>
       </c>
       <c r="I8" t="n">
-        <v>341469.4</v>
+        <v>603330</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>343029.4</v>
+        <v>681163.3</v>
       </c>
       <c r="L8" t="n">
-        <v>101231582</v>
+        <v>134978371.2</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>2721549.1</v>
+        <v>3801627</v>
       </c>
       <c r="P8" t="n">
-        <v>147445.3</v>
+        <v>135579.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>370635.1</v>
+        <v>586929.4</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>37557.2</v>
+        <v>60418.7</v>
       </c>
       <c r="T8" t="n">
-        <v>201412.6</v>
+        <v>267621.6</v>
       </c>
       <c r="U8" t="n">
-        <v>711094.6</v>
+        <v>753210.6</v>
       </c>
       <c r="V8" t="n">
-        <v>29711.6</v>
+        <v>74528.5</v>
       </c>
       <c r="W8" t="n">
-        <v>353030</v>
+        <v>735766.1</v>
       </c>
       <c r="X8" t="n">
-        <v>11286991.7</v>
+        <v>15017157.5</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>1037901.8</v>
+        <v>903399.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>204528</v>
+        <v>159305.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>2046845.9</v>
+        <v>2380514.5</v>
       </c>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
-        <v>17822715.2</v>
+        <v>26970175.9</v>
       </c>
       <c r="AE8" t="n">
-        <v>7015415.5</v>
+        <v>7924954</v>
       </c>
       <c r="AF8" t="n">
-        <v>828185.6</v>
+        <v>1457380.1</v>
       </c>
       <c r="AG8" t="n">
-        <v>2701305.2</v>
+        <v>3844541</v>
       </c>
       <c r="AH8" t="n">
-        <v>2506637.8</v>
+        <v>3691507.6</v>
       </c>
       <c r="AI8" t="n">
-        <v>69157.89999999999</v>
+        <v>97897</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1315863.5</v>
+        <v>1670109.6</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
-        <v>6155502.3</v>
+        <v>6088864.3</v>
       </c>
       <c r="AM8" t="n">
-        <v>50805.6</v>
+        <v>62091.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6108741.8</v>
+        <v>8423383</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>2261973.3</v>
+        <v>2833269.4</v>
       </c>
       <c r="F9" t="n">
-        <v>6873045.3</v>
+        <v>8253092</v>
       </c>
       <c r="G9" t="n">
-        <v>942638.1</v>
+        <v>1308989.4</v>
       </c>
       <c r="H9" t="n">
-        <v>4279485.1</v>
+        <v>6520596.1</v>
       </c>
       <c r="I9" t="n">
-        <v>372602.1</v>
+        <v>730495.6</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>412753.2</v>
+        <v>840057.2</v>
       </c>
       <c r="L9" t="n">
-        <v>102708341.9</v>
+        <v>149872195.7</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>2732463.1</v>
+        <v>4082920.7</v>
       </c>
       <c r="P9" t="n">
-        <v>108468</v>
+        <v>136895.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>428827.1</v>
+        <v>605078.9</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>44651.7</v>
+        <v>81207.5</v>
       </c>
       <c r="T9" t="n">
-        <v>150135.4</v>
+        <v>289340.9</v>
       </c>
       <c r="U9" t="n">
-        <v>611804</v>
+        <v>726981.3</v>
       </c>
       <c r="V9" t="n">
-        <v>35806.4</v>
+        <v>116863.4</v>
       </c>
       <c r="W9" t="n">
-        <v>434522.1</v>
+        <v>618903.6</v>
       </c>
       <c r="X9" t="n">
-        <v>11290147.1</v>
+        <v>16855765.2</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>838718.2</v>
+        <v>1009337</v>
       </c>
       <c r="AA9" t="n">
-        <v>142489.4</v>
+        <v>183456.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>2081405.5</v>
+        <v>2687411.6</v>
       </c>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
-        <v>19822682.9</v>
+        <v>31123180.6</v>
       </c>
       <c r="AE9" t="n">
-        <v>6690067.2</v>
+        <v>8812593.800000001</v>
       </c>
       <c r="AF9" t="n">
-        <v>870417.9</v>
+        <v>1674833.9</v>
       </c>
       <c r="AG9" t="n">
-        <v>2808475.6</v>
+        <v>4624372.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>2487517.1</v>
+        <v>4242259.8</v>
       </c>
       <c r="AI9" t="n">
-        <v>74207.10000000001</v>
+        <v>86931.3</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1382301.6</v>
+        <v>1760064</v>
       </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
-        <v>4838219.4</v>
+        <v>7602845.9</v>
       </c>
       <c r="AM9" t="n">
-        <v>52606.5</v>
+        <v>45035.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6262610</v>
+        <v>9698819.9</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>2743868.1</v>
+        <v>2917579.2</v>
       </c>
       <c r="F10" t="n">
-        <v>7453922.4</v>
+        <v>8783711.6</v>
       </c>
       <c r="G10" t="n">
-        <v>982567.6</v>
+        <v>1607880.7</v>
       </c>
       <c r="H10" t="n">
-        <v>4978805.7</v>
+        <v>7325193</v>
       </c>
       <c r="I10" t="n">
-        <v>472019.6</v>
+        <v>965199.1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>563542.5</v>
+        <v>1014522.4</v>
       </c>
       <c r="L10" t="n">
-        <v>117662657.9</v>
+        <v>169857184.5</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>3296787.4</v>
+        <v>4280598.5</v>
       </c>
       <c r="P10" t="n">
-        <v>126466.6</v>
+        <v>107003.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>511598.4</v>
+        <v>678021.4</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>39789</v>
+        <v>111764.2</v>
       </c>
       <c r="T10" t="n">
-        <v>233524.2</v>
+        <v>293782.7</v>
       </c>
       <c r="U10" t="n">
-        <v>661930.4</v>
+        <v>467255.5</v>
       </c>
       <c r="V10" t="n">
-        <v>43180.9</v>
+        <v>127985.9</v>
       </c>
       <c r="W10" t="n">
-        <v>482680.4</v>
+        <v>913683.9</v>
       </c>
       <c r="X10" t="n">
-        <v>13000483.4</v>
+        <v>17644377.7</v>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>782452.2</v>
+        <v>1222222.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>180382.2</v>
+        <v>237280.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>2229996.9</v>
+        <v>2996885</v>
       </c>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="n">
-        <v>23494423</v>
+        <v>36778180.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>7287116.3</v>
+        <v>10278695.4</v>
       </c>
       <c r="AF10" t="n">
-        <v>1171996.8</v>
+        <v>1841320.6</v>
       </c>
       <c r="AG10" t="n">
-        <v>3376747.9</v>
+        <v>5723341.9</v>
       </c>
       <c r="AH10" t="n">
-        <v>3035081.6</v>
+        <v>5543096.9</v>
       </c>
       <c r="AI10" t="n">
-        <v>76911.89999999999</v>
+        <v>133836.7</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1586257.5</v>
+        <v>1956976</v>
       </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="n">
-        <v>5073974.1</v>
+        <v>9559299.9</v>
       </c>
       <c r="AM10" t="n">
-        <v>58039</v>
+        <v>102199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7599517.4</v>
+        <v>11487133.1</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>3014682.3</v>
+        <v>3236130.4</v>
       </c>
       <c r="F11" t="n">
-        <v>8142838</v>
+        <v>9025862.6</v>
       </c>
       <c r="G11" t="n">
-        <v>1229238.1</v>
+        <v>1354622.4</v>
       </c>
       <c r="H11" t="n">
-        <v>5886028</v>
+        <v>8831875.6</v>
       </c>
       <c r="I11" t="n">
-        <v>603330</v>
+        <v>1041111.8</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>681163.3</v>
+        <v>1148827.6</v>
       </c>
       <c r="L11" t="n">
-        <v>134978371.2</v>
+        <v>186237781.1</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>3801627</v>
+        <v>4645886.8</v>
       </c>
       <c r="P11" t="n">
-        <v>135579.8</v>
+        <v>91722.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>586929.4</v>
+        <v>656391.6</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>60418.7</v>
+        <v>110137.4</v>
       </c>
       <c r="T11" t="n">
-        <v>267621.6</v>
+        <v>253370.7</v>
       </c>
       <c r="U11" t="n">
-        <v>753210.6</v>
+        <v>489994.7</v>
       </c>
       <c r="V11" t="n">
-        <v>74528.5</v>
+        <v>184816.8</v>
       </c>
       <c r="W11" t="n">
-        <v>735766.1</v>
+        <v>972441.5</v>
       </c>
       <c r="X11" t="n">
-        <v>15017157.5</v>
+        <v>19043384.4</v>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>903399.9</v>
+        <v>1392012.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>159305.9</v>
+        <v>336976.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>2380514.5</v>
+        <v>3291724.3</v>
       </c>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
-        <v>26970175.9</v>
+        <v>40640637.2</v>
       </c>
       <c r="AE11" t="n">
-        <v>7924954</v>
+        <v>11504204.7</v>
       </c>
       <c r="AF11" t="n">
-        <v>1457380.1</v>
+        <v>2001440.3</v>
       </c>
       <c r="AG11" t="n">
-        <v>3844541</v>
+        <v>6422868.6</v>
       </c>
       <c r="AH11" t="n">
-        <v>3691507.6</v>
+        <v>6387650.4</v>
       </c>
       <c r="AI11" t="n">
-        <v>97897</v>
+        <v>132554</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1670109.6</v>
+        <v>2093599.8</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
-        <v>6088864.3</v>
+        <v>10361357</v>
       </c>
       <c r="AM11" t="n">
-        <v>62091.6</v>
+        <v>105693.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8423383</v>
+        <v>13391214.7</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>2833269.4</v>
+        <v>3870801.9</v>
       </c>
       <c r="F12" t="n">
-        <v>8253092</v>
+        <v>11700571</v>
       </c>
       <c r="G12" t="n">
-        <v>1308989.4</v>
+        <v>1810907.9</v>
       </c>
       <c r="H12" t="n">
-        <v>6520596.1</v>
+        <v>11286100</v>
       </c>
       <c r="I12" t="n">
-        <v>730495.6</v>
+        <v>1269859.9</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>840057.2</v>
+        <v>1431626.8</v>
       </c>
       <c r="L12" t="n">
-        <v>149872195.7</v>
+        <v>226528583.1</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>4082920.7</v>
+        <v>6695453.9</v>
       </c>
       <c r="P12" t="n">
-        <v>136895.5</v>
+        <v>151868.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>605078.9</v>
+        <v>919957.5</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>81207.5</v>
+        <v>153711.9</v>
       </c>
       <c r="T12" t="n">
-        <v>289340.9</v>
+        <v>225463.7</v>
       </c>
       <c r="U12" t="n">
-        <v>726981.3</v>
+        <v>636073.2</v>
       </c>
       <c r="V12" t="n">
-        <v>116863.4</v>
+        <v>235274.3</v>
       </c>
       <c r="W12" t="n">
-        <v>618903.6</v>
+        <v>1557217.5</v>
       </c>
       <c r="X12" t="n">
-        <v>16855765.2</v>
+        <v>23102001.9</v>
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>1009337</v>
+        <v>2095557.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>183456.3</v>
+        <v>273928.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>2687411.6</v>
+        <v>3839603.1</v>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="n">
-        <v>31123180.6</v>
+        <v>48592085.2</v>
       </c>
       <c r="AE12" t="n">
-        <v>8812593.800000001</v>
+        <v>14055874.3</v>
       </c>
       <c r="AF12" t="n">
-        <v>1674833.9</v>
+        <v>2401638.1</v>
       </c>
       <c r="AG12" t="n">
-        <v>4624372.5</v>
+        <v>8131738.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>4242259.8</v>
+        <v>8101792.8</v>
       </c>
       <c r="AI12" t="n">
-        <v>86931.3</v>
+        <v>192636.7</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1760064</v>
+        <v>2497718.4</v>
       </c>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="n">
-        <v>7602845.9</v>
+        <v>13309091.7</v>
       </c>
       <c r="AM12" t="n">
-        <v>45035.8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9698819.9</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>2917579.2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>8783711.6</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1607880.7</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7325193</v>
-      </c>
-      <c r="I13" t="n">
-        <v>965199.1</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>1014522.4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>169857184.5</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
-        <v>4280598.5</v>
-      </c>
-      <c r="P13" t="n">
-        <v>107003.4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>678021.4</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>111764.2</v>
-      </c>
-      <c r="T13" t="n">
-        <v>293782.7</v>
-      </c>
-      <c r="U13" t="n">
-        <v>467255.5</v>
-      </c>
-      <c r="V13" t="n">
-        <v>127985.9</v>
-      </c>
-      <c r="W13" t="n">
-        <v>913683.9</v>
-      </c>
-      <c r="X13" t="n">
-        <v>17644377.7</v>
-      </c>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="n">
-        <v>1222222.6</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>237280.3</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>2996885</v>
-      </c>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="n">
-        <v>36778180.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>10278695.4</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1841320.6</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>5723341.9</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>5543096.9</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>133836.7</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1956976</v>
-      </c>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="n">
-        <v>9559299.9</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>102199</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>11487133.1</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>3236130.4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9025862.6</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1354622.4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8831875.6</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1041111.8</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>1148827.6</v>
-      </c>
-      <c r="L14" t="n">
-        <v>186237781.1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>4645886.8</v>
-      </c>
-      <c r="P14" t="n">
-        <v>91722.2</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>656391.6</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>110137.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>253370.7</v>
-      </c>
-      <c r="U14" t="n">
-        <v>489994.7</v>
-      </c>
-      <c r="V14" t="n">
-        <v>184816.8</v>
-      </c>
-      <c r="W14" t="n">
-        <v>972441.5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>19043384.4</v>
-      </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
-        <v>1392012.8</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>336976.3</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>3291724.3</v>
-      </c>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="n">
-        <v>40640637.2</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>11504204.7</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>2001440.3</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>6422868.6</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>6387650.4</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>132554</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>2093599.8</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="n">
-        <v>10361357</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>105693.8</v>
+        <v>278576.7</v>
       </c>
     </row>
   </sheetData>
